--- a/data/asset_life.xlsx
+++ b/data/asset_life.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3465A491-E505-4292-B7E3-71094582FF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EB8201-EBE5-4309-8CF7-C7D3D0978AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Freehold buildings, including related works services</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Over the period of lease</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -107,9 +110,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -427,7 +429,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,10 +540,12 @@
       <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -550,14 +554,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -804,27 +806,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E41F8B5-9DFF-47EE-B4A9-1947CEF687F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F034E58D-4966-4A6B-BE23-2CF4B05B508F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -849,9 +844,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F034E58D-4966-4A6B-BE23-2CF4B05B508F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E41F8B5-9DFF-47EE-B4A9-1947CEF687F5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/asset_life.xlsx
+++ b/data/asset_life.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EB8201-EBE5-4309-8CF7-C7D3D0978AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16F66E8-75E8-45BC-869D-327DD28BBD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>Freehold buildings, including related works services</t>
   </si>
   <si>
-    <t xml:space="preserve">Leasehold buildings </t>
-  </si>
-  <si>
     <t>Furniture and fittings</t>
   </si>
   <si>
@@ -71,10 +68,13 @@
     <t>max</t>
   </si>
   <si>
-    <t>Over the period of lease</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>long (i.e. over the entire period of lease)</t>
+  </si>
+  <si>
+    <t>Leasehold buildings</t>
   </si>
 </sst>
 </file>
@@ -429,26 +429,27 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -459,9 +460,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -470,9 +471,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -481,9 +482,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -492,9 +493,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -503,9 +504,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -514,9 +515,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -525,9 +526,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -536,15 +537,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -554,12 +555,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -806,20 +809,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F034E58D-4966-4A6B-BE23-2CF4B05B508F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E41F8B5-9DFF-47EE-B4A9-1947CEF687F5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -844,18 +854,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E41F8B5-9DFF-47EE-B4A9-1947CEF687F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F034E58D-4966-4A6B-BE23-2CF4B05B508F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/asset_life.xlsx
+++ b/data/asset_life.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3465A491-E505-4292-B7E3-71094582FF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16F66E8-75E8-45BC-869D-327DD28BBD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Freehold buildings, including related works services</t>
   </si>
   <si>
-    <t xml:space="preserve">Leasehold buildings </t>
-  </si>
-  <si>
     <t>Furniture and fittings</t>
   </si>
   <si>
@@ -71,7 +68,13 @@
     <t>max</t>
   </si>
   <si>
-    <t>Over the period of lease</t>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>long (i.e. over the entire period of lease)</t>
+  </si>
+  <si>
+    <t>Leasehold buildings</t>
   </si>
 </sst>
 </file>
@@ -107,9 +110,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -427,26 +429,27 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -457,9 +460,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -468,9 +471,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -479,9 +482,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>7</v>
@@ -490,9 +493,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>7</v>
@@ -501,9 +504,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -512,9 +515,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -523,9 +526,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -534,14 +537,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/asset_life.xlsx
+++ b/data/asset_life.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16F66E8-75E8-45BC-869D-327DD28BBD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6CE448-25D6-4F5D-A48E-962A3A9386BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,9 +130,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,7 +170,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -276,7 +276,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,7 +418,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -429,16 +429,16 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -449,7 +449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -460,7 +460,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -471,7 +471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -482,7 +482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -493,7 +493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -504,7 +504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -526,7 +526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -537,7 +537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -555,17 +555,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100763DCA751E988E49B18D7A5F3E2E0A59" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b021fe13dcae56d252e7321283a3f3b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd" xmlns:ns3="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d73ac3668dfd0d4084037886131f3a8" ns2:_="" ns3:_="">
     <xsd:import namespace="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
@@ -808,6 +797,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c78a888a-83d8-49bb-8890-6eb97e8a3c0e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -818,23 +818,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E41F8B5-9DFF-47EE-B4A9-1947CEF687F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D727C66-C971-4914-AA8F-7EF186A51C45}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -853,6 +836,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E41F8B5-9DFF-47EE-B4A9-1947CEF687F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="841a37d2-6ac6-4cb8-8211-c8824e7b4dcd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="c78a888a-83d8-49bb-8890-6eb97e8a3c0e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F034E58D-4966-4A6B-BE23-2CF4B05B508F}">
   <ds:schemaRefs>
